--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.15/root_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.15/root_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="948">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,805 +55,805 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>suffering</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>accused</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>destroy</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>madness</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>uncertain</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>introduced</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>wearing</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>sunday</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>retailers</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>risks</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>rather</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>suffering</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>destroy</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>desperate</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>hurt</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>madness</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>uncertain</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>introduced</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>personal</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>wearing</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>ya</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>sunday</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>retailers</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>say</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>risks</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>fault</t>
-  </si>
-  <si>
-    <t>rather</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>checks</t>
   </si>
   <si>
     <t>best</t>
@@ -3223,10 +3223,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3284,7 +3284,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02976999036934549</v>
+        <v>0.0302751721387537</v>
       </c>
       <c r="C3">
         <v>133</v>
@@ -3305,7 +3305,7 @@
         <v>159</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>0.01062752592251719</v>
@@ -3334,7 +3334,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02016126560989735</v>
+        <v>0.02050339215101993</v>
       </c>
       <c r="C4">
         <v>61</v>
@@ -3355,7 +3355,7 @@
         <v>454</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
         <v>0.008887183638848235</v>
@@ -3384,7 +3384,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.0115443071058867</v>
+        <v>0.01174020819345805</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -3405,7 +3405,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>278</v>
       </c>
       <c r="K5">
         <v>0.008501091707716705</v>
@@ -3414,19 +3414,19 @@
         <v>183</v>
       </c>
       <c r="M5">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="N5">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3434,7 +3434,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01095189133892057</v>
+        <v>0.01113773942876945</v>
       </c>
       <c r="C6">
         <v>18</v>
@@ -3455,7 +3455,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K6">
         <v>0.007874064765356594</v>
@@ -3484,7 +3484,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01064332525913646</v>
+        <v>0.01082393713774607</v>
       </c>
       <c r="C7">
         <v>17</v>
@@ -3505,7 +3505,7 @@
         <v>58</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="K7">
         <v>0.007722139272126077</v>
@@ -3514,19 +3514,19 @@
         <v>151</v>
       </c>
       <c r="M7">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="N7">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3534,28 +3534,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008942181832920622</v>
+        <v>0.008706771424251169</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>0.007435551299091965</v>
@@ -3584,28 +3584,28 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.008561487289324462</v>
+        <v>0.008706771424251169</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1932</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K9">
         <v>0.007219982119105541</v>
@@ -3634,28 +3634,28 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008561487289324462</v>
+        <v>0.008706771424251169</v>
       </c>
       <c r="C10">
         <v>11</v>
       </c>
       <c r="D10">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="E10">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F10">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1932</v>
+        <v>2810</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K10">
         <v>0.006855239576646025</v>
@@ -3684,28 +3684,28 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008561487289324462</v>
+        <v>0.007425159619179633</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>297</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>0.96</v>
+        <v>0.68</v>
       </c>
       <c r="F11">
-        <v>0.04000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>2810</v>
+        <v>943</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K11">
         <v>0.006439376316156026</v>
@@ -3734,28 +3734,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007744156632568953</v>
+        <v>0.006945600834269764</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K12">
         <v>0.006189207220625811</v>
@@ -3784,28 +3784,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007301260892613714</v>
+        <v>0.006945600834269764</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>943</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K13">
         <v>0.006060251262054606</v>
@@ -3834,7 +3834,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006829704187902952</v>
+        <v>0.006945600834269764</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -3855,7 +3855,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K14">
         <v>0.00602758120593007</v>
@@ -3884,7 +3884,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006829704187902952</v>
+        <v>0.006945600834269764</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -3902,10 +3902,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K15">
         <v>0.005827716036592985</v>
@@ -3934,13 +3934,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006829704187902952</v>
+        <v>0.006430376857363949</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K16">
         <v>0.005690574096042579</v>
@@ -3984,13 +3984,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006829704187902952</v>
+        <v>0.006430376857363949</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4002,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K17">
         <v>0.005478427927027284</v>
@@ -4034,7 +4034,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006323077412661323</v>
+        <v>0.006430376857363949</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -4052,10 +4052,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K18">
         <v>0.005027350253343778</v>
@@ -4084,7 +4084,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006323077412661323</v>
+        <v>0.006430376857363949</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -4102,10 +4102,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K19">
         <v>0.004987919446486951</v>
@@ -4134,7 +4134,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006323077412661323</v>
+        <v>0.006430376857363949</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K20">
         <v>0.004867710951688023</v>
@@ -4184,7 +4184,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006323077412661323</v>
+        <v>0.006430376857363949</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -4202,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <v>0.004744457757607748</v>
@@ -4234,28 +4234,28 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006323077412661323</v>
+        <v>0.006430376857363949</v>
       </c>
       <c r="C22">
         <v>6</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K22">
         <v>0.004744457757607748</v>
@@ -4284,7 +4284,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006323077412661323</v>
+        <v>0.006430376857363949</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>280</v>
@@ -4334,28 +4334,28 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006323077412661323</v>
+        <v>0.005870104096729025</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K24">
         <v>0.00448780775243392</v>
@@ -4384,13 +4384,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006323077412661323</v>
+        <v>0.005870104096729025</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4402,10 +4402,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K25">
         <v>0.004443591819424117</v>
@@ -4434,7 +4434,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005772153552943348</v>
+        <v>0.005870104096729025</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -4452,10 +4452,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K26">
         <v>0.004398931471675806</v>
@@ -4484,7 +4484,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005772153552943348</v>
+        <v>0.005870104096729025</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -4502,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>281</v>
@@ -4534,7 +4534,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005772153552943348</v>
+        <v>0.005870104096729025</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4552,10 +4552,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K28">
         <v>0.004072619173999511</v>
@@ -4584,28 +4584,28 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005772153552943348</v>
+        <v>0.005870104096729025</v>
       </c>
       <c r="C29">
         <v>5</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>354</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K29">
         <v>0.003924474033672447</v>
@@ -4634,28 +4634,28 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005772153552943348</v>
+        <v>0.005870104096729025</v>
       </c>
       <c r="C30">
         <v>5</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K30">
         <v>0.003924474033672447</v>
@@ -4684,28 +4684,28 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005772153552943348</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>354</v>
+        <v>33</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K31">
         <v>0.003822522218465599</v>
@@ -4734,25 +4734,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005772153552943348</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>282</v>
@@ -4784,7 +4784,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -4802,10 +4802,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K33">
         <v>0.003717775649545983</v>
@@ -4834,7 +4834,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>283</v>
@@ -4884,7 +4884,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -4902,10 +4902,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K35">
         <v>0.003498887697503996</v>
@@ -4934,7 +4934,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -4952,10 +4952,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K36">
         <v>0.003441991422794624</v>
@@ -4984,7 +4984,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5002,10 +5002,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K37">
         <v>0.003441991422794624</v>
@@ -5034,7 +5034,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -5052,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>284</v>
@@ -5084,7 +5084,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -5102,10 +5102,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K39">
         <v>0.003325279630991301</v>
@@ -5134,7 +5134,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K40">
         <v>0.003325279630991301</v>
@@ -5184,28 +5184,28 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>15</v>
+        <v>797</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K41">
         <v>0.003265359774838384</v>
@@ -5234,25 +5234,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>22</v>
+        <v>338</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>285</v>
@@ -5284,28 +5284,28 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C43">
         <v>4</v>
       </c>
       <c r="D43">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="E43">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F43">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>797</v>
+        <v>3057</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K43">
         <v>0.003142093908339862</v>
@@ -5334,25 +5334,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C44">
         <v>4</v>
       </c>
       <c r="D44">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>338</v>
+        <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>286</v>
@@ -5384,25 +5384,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="E45">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F45">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>3057</v>
+        <v>295</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>287</v>
@@ -5434,28 +5434,28 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005162771088379302</v>
+        <v>0.00525038071811444</v>
       </c>
       <c r="C46">
         <v>4</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>803</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K46">
         <v>0.003013790602965035</v>
@@ -5484,28 +5484,28 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005162771088379302</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
         <v>4</v>
       </c>
-      <c r="D47">
-        <v>32</v>
-      </c>
-      <c r="E47">
-        <v>0.88</v>
-      </c>
-      <c r="F47">
-        <v>0.12</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>295</v>
-      </c>
       <c r="J47" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K47">
         <v>0.002947545357304496</v>
@@ -5534,25 +5534,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005162771088379302</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>803</v>
+        <v>18</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>288</v>
@@ -5584,7 +5584,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5602,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>289</v>
@@ -5634,7 +5634,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>290</v>
@@ -5684,7 +5684,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -5702,10 +5702,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K51">
         <v>0.00281037422829437</v>
@@ -5734,7 +5734,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -5752,10 +5752,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K52">
         <v>0.00281037422829437</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>291</v>
@@ -5834,7 +5834,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -5855,7 +5855,7 @@
         <v>3</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K54">
         <v>0.00281037422829437</v>
@@ -5884,7 +5884,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>292</v>
@@ -5934,7 +5934,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>293</v>
@@ -5984,7 +5984,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -6002,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>294</v>
@@ -6034,7 +6034,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -6052,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K58">
         <v>0.00266615509165447</v>
@@ -6084,28 +6084,28 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>17</v>
+        <v>812</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K59">
         <v>0.002591037013939013</v>
@@ -6134,28 +6134,28 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>23</v>
+        <v>1109</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K60">
         <v>0.002591037013939013</v>
@@ -6184,25 +6184,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="E61">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F61">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>812</v>
+        <v>38</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>295</v>
@@ -6234,28 +6234,28 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
       <c r="D62">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="E62">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F62">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1109</v>
+        <v>17</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K62">
         <v>0.002591037013939013</v>
@@ -6284,28 +6284,28 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C63">
         <v>3</v>
       </c>
       <c r="D63">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E63">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F63">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K63">
         <v>0.002513675126671889</v>
@@ -6334,28 +6334,28 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="E64">
-        <v>0.97</v>
+        <v>0.25</v>
       </c>
       <c r="F64">
-        <v>0.03000000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K64">
         <v>0.002513675126671889</v>
@@ -6384,25 +6384,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004471090916460311</v>
+        <v>0.004546963081427089</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E65">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F65">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>296</v>
@@ -6434,28 +6434,28 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004471090916460311</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K66">
         <v>0.002433855475844012</v>
@@ -6484,25 +6484,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.004471090916460311</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>297</v>
@@ -6534,7 +6534,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -6552,10 +6552,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K68">
         <v>0.002433855475844012</v>
@@ -6584,7 +6584,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -6602,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>298</v>
@@ -6634,7 +6634,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>299</v>
@@ -6684,7 +6684,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -6702,10 +6702,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K71">
         <v>0.002351327776415449</v>
@@ -6734,7 +6734,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>300</v>
@@ -6784,7 +6784,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>301</v>
@@ -6834,7 +6834,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -6852,10 +6852,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K74">
         <v>0.002265796139768484</v>
@@ -6884,7 +6884,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -6902,10 +6902,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K75">
         <v>0.002265796139768484</v>
@@ -6934,7 +6934,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6952,10 +6952,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K76">
         <v>0.002265796139768484</v>
@@ -6984,7 +6984,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -7002,7 +7002,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>302</v>
@@ -7034,28 +7034,28 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K78">
         <v>0.002176906516558923</v>
@@ -7084,28 +7084,28 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K79">
         <v>0.002176906516558923</v>
@@ -7134,25 +7134,25 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E80">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F80">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>303</v>
@@ -7184,28 +7184,28 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E81">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F81">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K81">
         <v>0.002176906516558923</v>
@@ -7234,28 +7234,28 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E82">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="F82">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K82">
         <v>0.002176906516558923</v>
@@ -7284,28 +7284,28 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F83">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K83">
         <v>0.002176906516558923</v>
@@ -7334,25 +7334,25 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
       <c r="D84">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E84">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F84">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>304</v>
@@ -7384,28 +7384,28 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E85">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F85">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G85" t="b">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K85">
         <v>0.002084229310004934</v>
@@ -7434,25 +7434,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E86">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="F86">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>305</v>
@@ -7484,25 +7484,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E87">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F87">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>306</v>
@@ -7534,13 +7534,13 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E88">
         <v>0.96</v>
@@ -7552,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>163</v>
+        <v>597</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>307</v>
@@ -7584,28 +7584,28 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E89">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F89">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K89">
         <v>0.002084229310004934</v>
@@ -7634,28 +7634,28 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="E90">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="F90">
-        <v>0.04000000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>597</v>
+        <v>17</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K90">
         <v>0.002084229310004934</v>
@@ -7684,28 +7684,28 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E91">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F91">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K91">
         <v>0.001987234674498859</v>
@@ -7734,25 +7734,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E92">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F92">
-        <v>0.22</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G92" t="b">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>308</v>
@@ -7784,25 +7784,25 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C93">
         <v>2</v>
       </c>
       <c r="D93">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E93">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F93">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>309</v>
@@ -7834,25 +7834,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
       <c r="D94">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E94">
-        <v>0.9399999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F94">
-        <v>0.06000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>310</v>
@@ -7884,25 +7884,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E95">
-        <v>0.91</v>
+        <v>0.8</v>
       </c>
       <c r="F95">
-        <v>0.08999999999999997</v>
+        <v>0.2</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>311</v>
@@ -7934,25 +7934,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="F96">
-        <v>0.4</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>312</v>
@@ -7984,25 +7984,25 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
       <c r="D97">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E97">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="F97">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>313</v>
@@ -8034,28 +8034,28 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="E98">
-        <v>0.33</v>
+        <v>0.97</v>
       </c>
       <c r="F98">
-        <v>0.6699999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K98">
         <v>0.001987234674498859</v>
@@ -8084,25 +8084,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E99">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="F99">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="G99" t="b">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>314</v>
@@ -8134,25 +8134,25 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="E100">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F100">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G100" t="b">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>315</v>
@@ -8184,7 +8184,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -8202,10 +8202,10 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K101">
         <v>0.001885256345003917</v>
@@ -8234,13 +8234,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>0.89</v>
@@ -8252,7 +8252,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>316</v>
@@ -8284,25 +8284,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E103">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="F103">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>317</v>
@@ -8334,25 +8334,25 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C104">
         <v>2</v>
       </c>
       <c r="D104">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E104">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F104">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G104" t="b">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>101</v>
+        <v>188</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>318</v>
@@ -8384,25 +8384,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C105">
         <v>2</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="F105">
-        <v>0.5</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>319</v>
@@ -8434,25 +8434,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>188</v>
+        <v>21</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>320</v>
@@ -8484,25 +8484,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>321</v>
@@ -8534,7 +8534,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>322</v>
@@ -8584,7 +8584,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.003650630446306857</v>
+        <v>0.003712579809589816</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -8602,10 +8602,10 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K109">
         <v>0.001885256345003917</v>
@@ -8634,13 +8634,13 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.003650630446306857</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>323</v>
@@ -8684,13 +8684,13 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.003650630446306857</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>324</v>
@@ -8734,7 +8734,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8752,10 +8752,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K112">
         <v>0.001777436727769647</v>
@@ -8784,7 +8784,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8802,7 +8802,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>325</v>
@@ -8834,7 +8834,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>326</v>
@@ -8884,7 +8884,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>327</v>
@@ -8934,7 +8934,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8952,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>328</v>
@@ -8984,7 +8984,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K117">
         <v>0.001777436727769647</v>
@@ -9034,7 +9034,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>329</v>
@@ -9084,7 +9084,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K119">
         <v>0.001777436727769647</v>
@@ -9134,7 +9134,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9152,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>330</v>
@@ -9184,7 +9184,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9202,10 +9202,10 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K121">
         <v>0.001777436727769647</v>
@@ -9234,7 +9234,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K122">
         <v>0.001777436727769647</v>
@@ -9284,7 +9284,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9302,7 +9302,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>331</v>
@@ -9334,7 +9334,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9352,10 +9352,10 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K124">
         <v>0.00166263981549565</v>
@@ -9384,7 +9384,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9402,10 +9402,10 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K125">
         <v>0.00166263981549565</v>
@@ -9434,7 +9434,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9452,10 +9452,10 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K126">
         <v>0.00166263981549565</v>
@@ -9484,7 +9484,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>332</v>
@@ -9534,7 +9534,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9552,10 +9552,10 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K128">
         <v>0.00166263981549565</v>
@@ -9584,7 +9584,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>333</v>
@@ -9634,7 +9634,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>334</v>
@@ -9684,7 +9684,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9702,10 +9702,10 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K131">
         <v>0.00166263981549565</v>
@@ -9734,7 +9734,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9752,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>335</v>
@@ -9784,7 +9784,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>336</v>
@@ -9834,7 +9834,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>337</v>
@@ -9884,7 +9884,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -9902,10 +9902,10 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K135">
         <v>0.00166263981549565</v>
@@ -9934,7 +9934,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -9952,10 +9952,10 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K136">
         <v>0.00166263981549565</v>
@@ -9984,25 +9984,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>338</v>
@@ -10034,28 +10034,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K138">
         <v>0.00166263981549565</v>
@@ -10084,25 +10084,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E139">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F139">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>339</v>
@@ -10134,25 +10134,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>340</v>
@@ -10184,28 +10184,28 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E141">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F141">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K141">
         <v>0.001539305359867999</v>
@@ -10234,25 +10234,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>341</v>
@@ -10284,28 +10284,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K143">
         <v>0.001539305359867999</v>
@@ -10334,28 +10334,28 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E144">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F144">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K144">
         <v>0.001539305359867999</v>
@@ -10384,25 +10384,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F145">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H145">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>342</v>
@@ -10434,7 +10434,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10452,7 +10452,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>343</v>
@@ -10484,25 +10484,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>344</v>
@@ -10534,25 +10534,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>345</v>
@@ -10584,25 +10584,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>346</v>
@@ -10634,25 +10634,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>347</v>
@@ -10684,28 +10684,28 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K151">
         <v>0.001539305359867999</v>
@@ -10734,25 +10734,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E152">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F152">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>348</v>
@@ -10784,25 +10784,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>349</v>
@@ -10834,25 +10834,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E154">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F154">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>350</v>
@@ -10884,25 +10884,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E155">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F155">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>351</v>
@@ -10934,25 +10934,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>352</v>
@@ -10984,25 +10984,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E157">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F157">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>353</v>
@@ -11034,7 +11034,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11052,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>354</v>
@@ -11084,7 +11084,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>355</v>
@@ -11134,25 +11134,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>356</v>
@@ -11184,25 +11184,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E161">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F161">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>357</v>
@@ -11234,25 +11234,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C162">
         <v>1</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E162">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F162">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>358</v>
@@ -11284,25 +11284,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C163">
         <v>1</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>359</v>
@@ -11334,25 +11334,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E164">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F164">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>360</v>
@@ -11384,25 +11384,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>361</v>
@@ -11434,25 +11434,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>362</v>
@@ -11484,25 +11484,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E167">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F167">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>363</v>
@@ -11534,25 +11534,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H168">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>364</v>
@@ -11584,25 +11584,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E169">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="F169">
-        <v>0.06999999999999995</v>
+        <v>0.17</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>365</v>
@@ -11634,25 +11634,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E170">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F170">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>366</v>
@@ -11684,25 +11684,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>367</v>
@@ -11734,25 +11734,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E172">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F172">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>368</v>
@@ -11784,25 +11784,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>369</v>
@@ -11834,25 +11834,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>370</v>
@@ -11884,28 +11884,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K175">
         <v>0.001405187114147185</v>
@@ -11934,7 +11934,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>371</v>
@@ -11984,25 +11984,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>372</v>
@@ -12034,25 +12034,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>373</v>
@@ -12084,7 +12084,7 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -12102,7 +12102,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>374</v>
@@ -12134,19 +12134,19 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E180">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F180">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
@@ -12184,25 +12184,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E181">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F181">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>376</v>
@@ -12234,25 +12234,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E182">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F182">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>377</v>
@@ -12284,25 +12284,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E183">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F183">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>378</v>
@@ -12334,25 +12334,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>379</v>
@@ -12384,7 +12384,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12402,7 +12402,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>380</v>
@@ -12434,7 +12434,7 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -12452,10 +12452,10 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K186">
         <v>0.001405187114147185</v>
@@ -12484,25 +12484,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>381</v>
@@ -12534,28 +12534,28 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K188">
         <v>0.001405187114147185</v>
@@ -12584,7 +12584,7 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -12602,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>382</v>
@@ -12634,28 +12634,28 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E190">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F190">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K190">
         <v>0.001405187114147185</v>
@@ -12684,25 +12684,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>383</v>
@@ -12734,25 +12734,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E192">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F192">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>384</v>
@@ -12784,25 +12784,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E193">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F193">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>385</v>
@@ -12834,25 +12834,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="E194">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="F194">
-        <v>0.12</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>386</v>
@@ -12884,28 +12884,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E195">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F195">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K195">
         <v>0.001405187114147185</v>
@@ -12934,25 +12934,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="E196">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F196">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>22</v>
+        <v>529</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>387</v>
@@ -12984,25 +12984,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E197">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F197">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>388</v>
@@ -13034,25 +13034,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F198">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>529</v>
+        <v>21</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>389</v>
@@ -13084,28 +13084,28 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E199">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F199">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K199">
         <v>0.001405187114147185</v>
@@ -13134,28 +13134,28 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E200">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K200">
         <v>0.001405187114147185</v>
@@ -13184,25 +13184,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E201">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="F201">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>390</v>
@@ -13234,25 +13234,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E202">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F202">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>391</v>
@@ -13284,25 +13284,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>392</v>
@@ -13334,25 +13334,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>393</v>
@@ -13384,25 +13384,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>394</v>
@@ -13434,25 +13434,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>395</v>
@@ -13484,25 +13484,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E207">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F207">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>396</v>
@@ -13534,28 +13534,28 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E208">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F208">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K208">
         <v>0.001256837563335945</v>
@@ -13584,25 +13584,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E209">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F209">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>397</v>
@@ -13634,25 +13634,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E210">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F210">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>398</v>
@@ -13684,25 +13684,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E211">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F211">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>399</v>
@@ -13734,28 +13734,28 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E212">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F212">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K212">
         <v>0.001256837563335945</v>
@@ -13784,28 +13784,28 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F213">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K213">
         <v>0.001256837563335945</v>
@@ -13834,25 +13834,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>400</v>
@@ -13884,25 +13884,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>401</v>
@@ -13934,25 +13934,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>402</v>
@@ -13984,7 +13984,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>403</v>
@@ -14034,25 +14034,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E218">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>404</v>
@@ -14084,7 +14084,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14102,10 +14102,10 @@
         <v>0</v>
       </c>
       <c r="H219">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K219">
         <v>0.001256837563335945</v>
@@ -14134,25 +14134,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>405</v>
@@ -14184,28 +14184,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K221">
         <v>0.001256837563335945</v>
@@ -14234,25 +14234,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E222">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F222">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>406</v>
@@ -14284,25 +14284,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E223">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="F223">
-        <v>0.5</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>407</v>
@@ -14334,25 +14334,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E224">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F224">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>408</v>
@@ -14384,25 +14384,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E225">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="F225">
-        <v>0.07999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>409</v>
@@ -14434,25 +14434,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E226">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="F226">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>410</v>
@@ -14484,25 +14484,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E227">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F227">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>411</v>
@@ -14534,25 +14534,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E228">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F228">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>412</v>
@@ -14584,25 +14584,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E229">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F229">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>413</v>
@@ -14634,28 +14634,28 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E230">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F230">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K230">
         <v>0.001256837563335945</v>
@@ -14684,7 +14684,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14702,7 +14702,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>414</v>
@@ -14734,25 +14734,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E232">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F232">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>415</v>
@@ -14784,25 +14784,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E233">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F233">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>416</v>
@@ -14834,7 +14834,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14852,7 +14852,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>417</v>
@@ -14884,25 +14884,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E235">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F235">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>418</v>
@@ -14934,25 +14934,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E236">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F236">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>419</v>
@@ -14984,25 +14984,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E237">
-        <v>0.75</v>
+        <v>0.98</v>
       </c>
       <c r="F237">
-        <v>0.25</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>420</v>
@@ -15034,25 +15034,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E238">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F238">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>421</v>
@@ -15084,25 +15084,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E239">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F239">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>352</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>422</v>
@@ -15134,25 +15134,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="E240">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F240">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>423</v>
@@ -15184,25 +15184,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E241">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="F241">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>352</v>
+        <v>54</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>424</v>
@@ -15234,13 +15234,13 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="E242">
         <v>0.99</v>
@@ -15252,10 +15252,10 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>59</v>
+        <v>225</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K242">
         <v>0.001256837563335945</v>
@@ -15284,25 +15284,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E243">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="F243">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>54</v>
+        <v>446</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>425</v>
@@ -15334,25 +15334,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>225</v>
+        <v>5</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>426</v>
@@ -15384,25 +15384,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>446</v>
+        <v>18</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>427</v>
@@ -15434,25 +15434,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>428</v>
@@ -15484,25 +15484,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>429</v>
@@ -15534,28 +15534,28 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E248">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F248">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K248">
         <v>0.001256837563335945</v>
@@ -15584,28 +15584,28 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E249">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F249">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K249">
         <v>0.001256837563335945</v>
@@ -15634,25 +15634,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E250">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F250">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>430</v>
@@ -15684,25 +15684,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E251">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="F251">
-        <v>0.25</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>431</v>
@@ -15734,25 +15734,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E252">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F252">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>432</v>
@@ -15784,28 +15784,28 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E253">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F253">
-        <v>0.08999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K253">
         <v>0.001256837563335945</v>
@@ -15834,25 +15834,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E254">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F254">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>433</v>
@@ -15884,25 +15884,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E255">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F255">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>434</v>
@@ -15934,25 +15934,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E256">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F256">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>435</v>
@@ -15984,25 +15984,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E257">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F257">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>436</v>
@@ -16034,25 +16034,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E258">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F258">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>437</v>
@@ -16084,28 +16084,28 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E259">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F259">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K259">
         <v>0.001088453258279461</v>
@@ -16134,25 +16134,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E260">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F260">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>438</v>
@@ -16184,25 +16184,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H261">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>439</v>
@@ -16234,25 +16234,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E262">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F262">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H262">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>440</v>
@@ -16284,25 +16284,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="E263">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F263">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H263">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>441</v>
@@ -16334,7 +16334,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16352,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="H264">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>442</v>
@@ -16384,7 +16384,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16402,10 +16402,10 @@
         <v>0</v>
       </c>
       <c r="H265">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K265">
         <v>0.001088453258279461</v>
@@ -16434,7 +16434,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16452,7 +16452,7 @@
         <v>0</v>
       </c>
       <c r="H266">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>443</v>
@@ -16484,7 +16484,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16502,7 +16502,7 @@
         <v>0</v>
       </c>
       <c r="H267">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>444</v>
@@ -16534,7 +16534,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -16552,7 +16552,7 @@
         <v>0</v>
       </c>
       <c r="H268">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>445</v>
@@ -16584,7 +16584,7 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -16602,7 +16602,7 @@
         <v>0</v>
       </c>
       <c r="H269">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>446</v>
@@ -16634,7 +16634,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -16652,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="H270">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>447</v>
@@ -16684,7 +16684,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="H271">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>448</v>
@@ -16734,7 +16734,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.002581385544189651</v>
+        <v>0.00262519035905722</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -16752,7 +16752,7 @@
         <v>0</v>
       </c>
       <c r="H272">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>449</v>
@@ -16779,31 +16779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="273" spans="1:17">
-      <c r="A273" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B273">
-        <v>0.002581385544189651</v>
-      </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-      <c r="D273">
-        <v>1</v>
-      </c>
-      <c r="E273">
-        <v>0</v>
-      </c>
-      <c r="F273">
-        <v>1</v>
-      </c>
-      <c r="G273" t="b">
-        <v>0</v>
-      </c>
-      <c r="H273">
-        <v>17</v>
-      </c>
+    <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
         <v>450</v>
       </c>
@@ -16829,33 +16805,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:17">
-      <c r="A274" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B274">
-        <v>0.002581385544189651</v>
-      </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-      <c r="D274">
-        <v>1</v>
-      </c>
-      <c r="E274">
-        <v>0</v>
-      </c>
-      <c r="F274">
-        <v>1</v>
-      </c>
-      <c r="G274" t="b">
-        <v>0</v>
-      </c>
-      <c r="H274">
-        <v>13</v>
-      </c>
+    <row r="274" spans="10:17">
       <c r="J274" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K274">
         <v>0.001088453258279461</v>
@@ -16879,7 +16831,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
         <v>451</v>
       </c>
@@ -16905,7 +16857,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="10:17">
       <c r="J276" s="1" t="s">
         <v>452</v>
       </c>
@@ -16931,9 +16883,9 @@
         <v>461</v>
       </c>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="10:17">
       <c r="J277" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K277">
         <v>0.001088453258279461</v>
@@ -16957,7 +16909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
         <v>453</v>
       </c>
@@ -16983,7 +16935,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="10:17">
       <c r="J279" s="1" t="s">
         <v>454</v>
       </c>
@@ -17009,7 +16961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="10:17">
       <c r="J280" s="1" t="s">
         <v>455</v>
       </c>
@@ -17035,7 +16987,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
         <v>456</v>
       </c>
@@ -17061,7 +17013,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="10:17">
       <c r="J282" s="1" t="s">
         <v>457</v>
       </c>
@@ -17087,7 +17039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="10:17">
       <c r="J283" s="1" t="s">
         <v>458</v>
       </c>
@@ -17113,7 +17065,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="10:17">
       <c r="J284" s="1" t="s">
         <v>459</v>
       </c>
@@ -17139,7 +17091,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
         <v>460</v>
       </c>
@@ -17165,7 +17117,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="10:17">
       <c r="J286" s="1" t="s">
         <v>461</v>
       </c>
@@ -17191,9 +17143,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="10:17">
       <c r="J287" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K287">
         <v>0.001088453258279461</v>
@@ -17217,7 +17169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
         <v>462</v>
       </c>
@@ -17505,7 +17457,7 @@
     </row>
     <row r="299" spans="10:17">
       <c r="J299" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K299">
         <v>0.001088453258279461</v>
@@ -17739,7 +17691,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K308">
         <v>0.001088453258279461</v>
@@ -17895,7 +17847,7 @@
     </row>
     <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K314">
         <v>0.001088453258279461</v>
@@ -17973,7 +17925,7 @@
     </row>
     <row r="317" spans="10:17">
       <c r="J317" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K317">
         <v>0.001088453258279461</v>
@@ -18155,7 +18107,7 @@
     </row>
     <row r="324" spans="10:17">
       <c r="J324" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K324">
         <v>0.001088453258279461</v>
@@ -18415,7 +18367,7 @@
     </row>
     <row r="334" spans="10:17">
       <c r="J334" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K334">
         <v>0.0008887183638848234</v>
@@ -18545,7 +18497,7 @@
     </row>
     <row r="339" spans="10:17">
       <c r="J339" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K339">
         <v>0.0008887183638848234</v>
@@ -18753,7 +18705,7 @@
     </row>
     <row r="347" spans="10:17">
       <c r="J347" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K347">
         <v>0.0008887183638848234</v>
@@ -19065,7 +19017,7 @@
     </row>
     <row r="359" spans="10:17">
       <c r="J359" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K359">
         <v>0.0008887183638848234</v>
@@ -19299,7 +19251,7 @@
     </row>
     <row r="368" spans="10:17">
       <c r="J368" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K368">
         <v>0.0008887183638848234</v>
@@ -19351,7 +19303,7 @@
     </row>
     <row r="370" spans="10:17">
       <c r="J370" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K370">
         <v>0.0008887183638848234</v>
@@ -19793,7 +19745,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K387">
         <v>0.0008887183638848234</v>
@@ -20105,7 +20057,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K399">
         <v>0.0008887183638848234</v>
@@ -20339,7 +20291,7 @@
     </row>
     <row r="408" spans="10:17">
       <c r="J408" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K408">
         <v>0.0008887183638848234</v>
@@ -20521,7 +20473,7 @@
     </row>
     <row r="415" spans="10:17">
       <c r="J415" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K415">
         <v>0.0008887183638848234</v>
@@ -20573,7 +20525,7 @@
     </row>
     <row r="417" spans="10:17">
       <c r="J417" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K417">
         <v>0.0008887183638848234</v>
@@ -20755,7 +20707,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K424">
         <v>0.0008887183638848234</v>
@@ -20937,7 +20889,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K431">
         <v>0.0008887183638848234</v>
@@ -21119,7 +21071,7 @@
     </row>
     <row r="438" spans="10:17">
       <c r="J438" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K438">
         <v>0.0008887183638848234</v>
@@ -21405,7 +21357,7 @@
     </row>
     <row r="449" spans="10:17">
       <c r="J449" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K449">
         <v>0.0008887183638848234</v>
@@ -21483,7 +21435,7 @@
     </row>
     <row r="452" spans="10:17">
       <c r="J452" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K452">
         <v>0.0008887183638848234</v>
@@ -21821,7 +21773,7 @@
     </row>
     <row r="465" spans="10:17">
       <c r="J465" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K465">
         <v>0.0008887183638848234</v>
@@ -22081,7 +22033,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K475">
         <v>0.0008887183638848234</v>
@@ -22159,7 +22111,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K478">
         <v>0.0008887183638848234</v>
@@ -22211,7 +22163,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K480">
         <v>0.0006284187816679723</v>
@@ -22783,7 +22735,7 @@
     </row>
     <row r="502" spans="10:17">
       <c r="J502" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K502">
         <v>0.0006284187816679723</v>
@@ -23303,7 +23255,7 @@
     </row>
     <row r="522" spans="10:17">
       <c r="J522" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K522">
         <v>0.0006284187816679723</v>
@@ -23693,7 +23645,7 @@
     </row>
     <row r="537" spans="10:17">
       <c r="J537" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K537">
         <v>0.0006284187816679723</v>
@@ -23875,7 +23827,7 @@
     </row>
     <row r="544" spans="10:17">
       <c r="J544" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K544">
         <v>0.0006284187816679723</v>
@@ -23927,7 +23879,7 @@
     </row>
     <row r="546" spans="10:17">
       <c r="J546" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K546">
         <v>0.0006284187816679723</v>
@@ -23953,7 +23905,7 @@
     </row>
     <row r="547" spans="10:17">
       <c r="J547" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K547">
         <v>0.0006284187816679723</v>
@@ -24057,7 +24009,7 @@
     </row>
     <row r="551" spans="10:17">
       <c r="J551" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K551">
         <v>0.0006284187816679723</v>
@@ -24863,7 +24815,7 @@
     </row>
     <row r="582" spans="10:17">
       <c r="J582" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K582">
         <v>0.0006284187816679723</v>
@@ -25513,7 +25465,7 @@
     </row>
     <row r="607" spans="10:17">
       <c r="J607" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K607">
         <v>0.0006284187816679723</v>
@@ -25773,7 +25725,7 @@
     </row>
     <row r="617" spans="10:17">
       <c r="J617" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K617">
         <v>0.0006284187816679723</v>
@@ -27385,7 +27337,7 @@
     </row>
     <row r="679" spans="10:17">
       <c r="J679" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K679">
         <v>0.0006284187816679723</v>
@@ -27411,7 +27363,7 @@
     </row>
     <row r="680" spans="10:17">
       <c r="J680" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K680">
         <v>0.0006284187816679723</v>
@@ -27463,7 +27415,7 @@
     </row>
     <row r="682" spans="10:17">
       <c r="J682" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K682">
         <v>0.0006284187816679723</v>
@@ -27541,7 +27493,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K685">
         <v>0.0006284187816679723</v>
@@ -27593,7 +27545,7 @@
     </row>
     <row r="687" spans="10:17">
       <c r="J687" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K687">
         <v>0.0006284187816679723</v>
@@ -28425,7 +28377,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K719">
         <v>0.0006284187816679723</v>
@@ -28841,7 +28793,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K735">
         <v>0.0006284187816679723</v>
@@ -29959,7 +29911,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K778">
         <v>0.0006284187816679723</v>
